--- a/biology/Botanique/Billbergia_vittata/Billbergia_vittata.xlsx
+++ b/biology/Botanique/Billbergia_vittata/Billbergia_vittata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Billbergia vittata est une espèce de plantes de la famille des Bromeliaceae, endémique du Brésil.
 </t>
@@ -511,19 +523,20 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Billbergia amabilis Beer[1] ;
-Billbergia excellens Miq.[1] ;
-Billbergia leopoldii K.Koch[1] ;
-Billbergia moreliana Brongn.[1] ;
-Billbergia rohaniana de Vriese[1] ;
-Billbergia zonata Linden[1] ;
-Bromelia rohaniana Walp.[1] ;
-Tillandsia moreliana (Brongn.) Henfr.[1].
-Synonymes intraspécifique
-Billbergia vittata var. amabilis E.Morren[1].</t>
+Billbergia amabilis Beer ;
+Billbergia excellens Miq. ;
+Billbergia leopoldii K.Koch ;
+Billbergia moreliana Brongn. ;
+Billbergia rohaniana de Vriese ;
+Billbergia zonata Linden ;
+Bromelia rohaniana Walp. ;
+Tillandsia moreliana (Brongn.) Henfr..
+</t>
         </is>
       </c>
     </row>
@@ -548,13 +561,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Synonymes</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est endémique de l'est du Brésil[2].
-</t>
+          <t>Synonymes intraspécifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Billbergia vittata var. amabilis E.Morren.</t>
         </is>
       </c>
     </row>
@@ -579,12 +597,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique de l'est du Brésil.
 </t>
         </is>
       </c>
@@ -610,10 +630,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Billbergia_vittata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Billbergia_vittata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuille et fruit
